--- a/NUEVA ECIJA ARBO.xlsx
+++ b/NUEVA ECIJA ARBO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>ARBO Name</t>
   </si>
@@ -33,19 +33,25 @@
     <t>Region</t>
   </si>
   <si>
+    <t>APCP Qualified</t>
+  </si>
+  <si>
     <t>Earle's ARBO</t>
   </si>
   <si>
+    <t>QUEZON</t>
+  </si>
+  <si>
+    <t>NUEVA ECIJA</t>
+  </si>
+  <si>
+    <t>REGION III (CENTRAL LUZON)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Jorge's ARBO</t>
-  </si>
-  <si>
-    <t>REGION III (CENTRAL LUZON)</t>
-  </si>
-  <si>
-    <t>NUEVA ECIJA</t>
-  </si>
-  <si>
-    <t>QUEZON</t>
   </si>
 </sst>
 </file>
@@ -123,7 +129,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -424,21 +430,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,38 +458,46 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/NUEVA ECIJA ARBO.xlsx
+++ b/NUEVA ECIJA ARBO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>ARBO Name</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Jorge's ARBO</t>
+  </si>
+  <si>
+    <t>ARBO Type</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Cooperative</t>
   </si>
 </sst>
 </file>
@@ -430,74 +439,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/NUEVA ECIJA ARBO.xlsx
+++ b/NUEVA ECIJA ARBO.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
-  <si>
-    <t>ARBO Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>City</t>
   </si>
@@ -33,9 +30,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>APCP Qualified</t>
-  </si>
-  <si>
     <t>Earle's ARBO</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>REGION III (CENTRAL LUZON)</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Jorge's ARBO</t>
   </si>
   <si>
@@ -61,6 +52,12 @@
   </si>
   <si>
     <t>Cooperative</t>
+  </si>
+  <si>
+    <t>ARBO ID</t>
+  </si>
+  <si>
+    <t>ARBO</t>
   </si>
 </sst>
 </file>
@@ -439,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,68 +447,71 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F3" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
